--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/Repositories/Griffith/Trimester-2-2024/2810ICT-Software-Technologies/assignment-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisky\Documents\Repositories\Griffith\2810ICT-milestone-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759C58DB-12FD-384D-8A2E-86510E97A3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC02952-DE64-4E41-9F61-248968E3FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -670,12 +670,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -696,21 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1114,25 +1114,25 @@
   </sheetPr>
   <dimension ref="B1:BE48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="116" zoomScaleNormal="116" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="27" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="41" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="2.6640625" customWidth="1"/>
-    <col min="43" max="57" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="27" width="3.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="41" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="2.625" customWidth="1"/>
+    <col min="43" max="57" width="3.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:57" ht="60" customHeight="1" thickBot="1">
@@ -1146,11 +1146,11 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="2:57" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="21" t="s">
         <v>11</v>
       </c>
@@ -1158,37 +1158,37 @@
         <v>1</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="28"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="32"/>
+      <c r="V2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="37"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="32"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
       <c r="AH2" s="17"/>
       <c r="AI2" s="19" t="s">
         <v>3</v>
@@ -1201,23 +1201,23 @@
       <c r="AO2" s="20"/>
       <c r="AP2" s="20"/>
     </row>
-    <row r="3" spans="2:57" s="9" customFormat="1" ht="40" customHeight="1" thickTop="1">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:57" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
+      <c r="B3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="30" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1244,12 +1244,12 @@
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="2:57" ht="15.75" customHeight="1">
-      <c r="B4" s="35"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:57" ht="34">
+    <row r="5" spans="2:57" ht="31.5">
       <c r="B5" s="23" t="s">
         <v>13</v>
       </c>
@@ -1411,13 +1411,17 @@
       <c r="D5" s="5">
         <v>5</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
       <c r="G5" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:57" ht="34" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:57" ht="31.5" outlineLevel="1">
       <c r="B6" s="23" t="s">
         <v>14</v>
       </c>
@@ -1427,13 +1431,17 @@
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
       <c r="G6" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:57" ht="34" outlineLevel="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:57" ht="31.5" outlineLevel="2">
       <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
@@ -1443,13 +1451,17 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
       <c r="G7" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:57" ht="34" outlineLevel="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:57" ht="31.5" outlineLevel="2">
       <c r="B8" s="23" t="s">
         <v>16</v>
       </c>
@@ -1459,13 +1471,17 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
       <c r="G8" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:57" ht="17" outlineLevel="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:57" ht="15.75" outlineLevel="2">
       <c r="B9" s="23" t="s">
         <v>17</v>
       </c>
@@ -1475,13 +1491,17 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
       <c r="G9" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:57" ht="34" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:57" ht="31.5" outlineLevel="1">
       <c r="B10" s="23" t="s">
         <v>18</v>
       </c>
@@ -1491,13 +1511,17 @@
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
       <c r="G10" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:57" ht="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:57" ht="31.5">
       <c r="B11" s="23" t="s">
         <v>19</v>
       </c>
@@ -1507,13 +1531,17 @@
       <c r="D11" s="5">
         <v>18</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="5">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5">
+        <v>18</v>
+      </c>
       <c r="G11" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:57" ht="34" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:57" ht="31.5" outlineLevel="1">
       <c r="B12" s="23" t="s">
         <v>20</v>
       </c>
@@ -1523,13 +1551,17 @@
       <c r="D12" s="5">
         <v>3</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="5">
+        <v>6</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
       <c r="G12" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:57" ht="17" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:57" ht="15.75" outlineLevel="1">
       <c r="B13" s="23" t="s">
         <v>21</v>
       </c>
@@ -1539,13 +1571,17 @@
       <c r="D13" s="5">
         <v>2</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="5">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
       <c r="G13" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:57" ht="34" outlineLevel="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:57" ht="31.5" outlineLevel="2">
       <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
@@ -1555,13 +1591,17 @@
       <c r="D14" s="5">
         <v>5</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="5">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5</v>
+      </c>
       <c r="G14" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:57" ht="34" outlineLevel="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:57" ht="31.5" outlineLevel="2">
       <c r="B15" s="23" t="s">
         <v>23</v>
       </c>
@@ -1571,13 +1611,17 @@
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="6">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
       <c r="G15" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:57" ht="34" outlineLevel="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:57" ht="31.5" outlineLevel="2">
       <c r="B16" s="23" t="s">
         <v>24</v>
       </c>
@@ -1587,13 +1631,17 @@
       <c r="D16" s="5">
         <v>2</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="5">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
       <c r="G16" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="34" outlineLevel="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="31.5" outlineLevel="2">
       <c r="B17" s="23" t="s">
         <v>25</v>
       </c>
@@ -1603,13 +1651,17 @@
       <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="5">
+        <v>14</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
       <c r="G17" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="34" outlineLevel="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="31.5" outlineLevel="2">
       <c r="B18" s="23" t="s">
         <v>26</v>
       </c>
@@ -1619,13 +1671,17 @@
       <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="5">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
       <c r="G18" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="34" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="31.5" outlineLevel="1">
       <c r="B19" s="23" t="s">
         <v>27</v>
       </c>
@@ -1635,13 +1691,17 @@
       <c r="D19" s="5">
         <v>3</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="5">
+        <v>16</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
       <c r="G19" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="34" outlineLevel="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="31.5" outlineLevel="2">
       <c r="B20" s="23" t="s">
         <v>28</v>
       </c>
@@ -1651,13 +1711,17 @@
       <c r="D20" s="5">
         <v>1</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="5">
+        <v>16</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
       <c r="G20" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="34" outlineLevel="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="31.5" outlineLevel="2">
       <c r="B21" s="23" t="s">
         <v>29</v>
       </c>
@@ -1667,13 +1731,17 @@
       <c r="D21" s="5">
         <v>2</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="5">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
       <c r="G21" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="34" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="31.5" outlineLevel="1">
       <c r="B22" s="23" t="s">
         <v>30</v>
       </c>
@@ -1683,13 +1751,17 @@
       <c r="D22" s="5">
         <v>5</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="E22" s="5">
+        <v>19</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5</v>
+      </c>
       <c r="G22" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="34" outlineLevel="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="31.5" outlineLevel="2">
       <c r="B23" s="23" t="s">
         <v>31</v>
       </c>
@@ -1699,13 +1771,17 @@
       <c r="D23" s="5">
         <v>2</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="E23" s="5">
+        <v>19</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
       <c r="G23" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="34" outlineLevel="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="31.5" outlineLevel="2">
       <c r="B24" s="23" t="s">
         <v>32</v>
       </c>
@@ -1715,13 +1791,17 @@
       <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="5">
+        <v>21</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
       <c r="G24" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="17" outlineLevel="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" outlineLevel="2">
       <c r="B25" s="23" t="s">
         <v>33</v>
       </c>
@@ -1731,13 +1811,17 @@
       <c r="D25" s="5">
         <v>1</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="5">
+        <v>22</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
       <c r="G25" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="34" outlineLevel="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="31.5" outlineLevel="2">
       <c r="B26" s="23" t="s">
         <v>34</v>
       </c>
@@ -1747,13 +1831,17 @@
       <c r="D26" s="5">
         <v>1</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="E26" s="5">
+        <v>23</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
       <c r="G26" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="31.5">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
@@ -1763,13 +1851,15 @@
       <c r="D27" s="5">
         <v>14</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5">
+        <v>24</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="34" outlineLevel="1">
+    <row r="28" spans="2:7" ht="31.5" outlineLevel="1">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
@@ -1779,13 +1869,17 @@
       <c r="D28" s="5">
         <v>1</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="E28" s="5">
+        <v>24</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
       <c r="G28" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="17" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" outlineLevel="1">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
@@ -1801,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="34" outlineLevel="1">
+    <row r="30" spans="2:7" ht="31.5" outlineLevel="1">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
@@ -1817,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="17" outlineLevel="1">
+    <row r="31" spans="2:7" ht="15.75" outlineLevel="1">
       <c r="B31" s="23" t="s">
         <v>39</v>
       </c>
@@ -1833,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="17" outlineLevel="1">
+    <row r="32" spans="2:7" ht="15.75" outlineLevel="1">
       <c r="B32" s="23" t="s">
         <v>40</v>
       </c>
@@ -1849,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="51" outlineLevel="1">
+    <row r="33" spans="2:17" ht="47.25" outlineLevel="1">
       <c r="B33" s="23" t="s">
         <v>41</v>
       </c>
@@ -1865,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="51">
+    <row r="34" spans="2:17" ht="47.25">
       <c r="B34" s="23" t="s">
         <v>42</v>
       </c>
@@ -1881,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="34" outlineLevel="1">
+    <row r="35" spans="2:17" ht="31.5" outlineLevel="1">
       <c r="B35" s="23" t="s">
         <v>43</v>
       </c>
@@ -1897,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:17" ht="17" outlineLevel="1">
+    <row r="36" spans="2:17" ht="15.75" outlineLevel="1">
       <c r="B36" s="23" t="s">
         <v>44</v>
       </c>
@@ -1913,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:17" ht="17" outlineLevel="1">
+    <row r="37" spans="2:17" ht="15.75" outlineLevel="1">
       <c r="B37" s="23" t="s">
         <v>45</v>
       </c>
@@ -1929,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:17" ht="34" outlineLevel="1">
+    <row r="38" spans="2:17" ht="31.5" outlineLevel="1">
       <c r="B38" s="23" t="s">
         <v>46</v>
       </c>
@@ -1945,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:17" ht="34" outlineLevel="1">
+    <row r="39" spans="2:17" ht="31.5" outlineLevel="1">
       <c r="B39" s="23" t="s">
         <v>47</v>
       </c>
@@ -1961,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:17" ht="20" outlineLevel="1">
+    <row r="40" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B40" s="2" t="s">
         <v>48</v>
       </c>
@@ -1975,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:17" ht="60" outlineLevel="1">
+    <row r="41" spans="2:17" ht="51.75" outlineLevel="1">
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
@@ -1989,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:17" ht="40">
+    <row r="42" spans="2:17" ht="34.5">
       <c r="B42" s="2" t="s">
         <v>50</v>
       </c>
@@ -2003,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:17" ht="40" outlineLevel="1">
+    <row r="43" spans="2:17" ht="34.5" outlineLevel="1">
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
@@ -2017,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:17" ht="40" outlineLevel="1">
+    <row r="44" spans="2:17" ht="34.5" outlineLevel="1">
       <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
@@ -2032,21 +2126,21 @@
       </c>
     </row>
     <row r="48" spans="2:17" ht="30" customHeight="1">
-      <c r="Q48" s="37"/>
+      <c r="Q48" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:BE4">
     <cfRule type="expression" dxfId="8" priority="8">

--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisky\Documents\Repositories\Griffith\2810ICT-milestone-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC02952-DE64-4E41-9F61-248968E3FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E8CBED-14BC-4BDE-9D2C-6313091DCA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,6 +673,33 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
@@ -684,33 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1114,8 +1114,8 @@
   </sheetPr>
   <dimension ref="B1:BE48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
@@ -1146,11 +1146,11 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="2:57" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="21" t="s">
         <v>11</v>
       </c>
@@ -1158,37 +1158,37 @@
         <v>1</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="33"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="37"/>
+      <c r="V2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="33"/>
       <c r="AH2" s="17"/>
       <c r="AI2" s="19" t="s">
         <v>3</v>
@@ -1202,22 +1202,22 @@
       <c r="AP2" s="20"/>
     </row>
     <row r="3" spans="2:57" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1244,12 +1244,12 @@
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="2:57" ht="15.75" customHeight="1">
-      <c r="B4" s="27"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1889,7 +1889,9 @@
       <c r="D29" s="5">
         <v>7</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5">
+        <v>24</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="22">
         <v>0</v>
@@ -1975,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="31.5" outlineLevel="1">
+    <row r="35" spans="2:17" ht="47.25" outlineLevel="1">
       <c r="B35" s="23" t="s">
         <v>43</v>
       </c>
@@ -2130,17 +2132,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:BE4">
     <cfRule type="expression" dxfId="8" priority="8">

--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisky\Documents\Repositories\Griffith\2810ICT-milestone-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E8CBED-14BC-4BDE-9D2C-6313091DCA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC270A7-1D57-4B62-8AAE-BDE25FD8137F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -673,12 +673,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -699,18 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1114,8 +1114,8 @@
   </sheetPr>
   <dimension ref="B1:BE48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
@@ -1146,11 +1146,11 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="2:57" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="21" t="s">
         <v>11</v>
       </c>
@@ -1158,37 +1158,37 @@
         <v>1</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="29"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="33"/>
+      <c r="V2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="37"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="33"/>
+      <c r="AA2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
       <c r="AH2" s="17"/>
       <c r="AI2" s="19" t="s">
         <v>3</v>
@@ -1202,22 +1202,22 @@
       <c r="AP2" s="20"/>
     </row>
     <row r="3" spans="2:57" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="30" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1244,12 +1244,12 @@
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="2:57" ht="15.75" customHeight="1">
-      <c r="B4" s="36"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1892,9 +1892,11 @@
       <c r="E29" s="5">
         <v>24</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="5">
+        <v>6</v>
+      </c>
       <c r="G29" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="31.5" outlineLevel="1">
@@ -1907,10 +1909,14 @@
       <c r="D30" s="5">
         <v>2</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="5">
+        <v>30</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
       <c r="G30" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15.75" outlineLevel="1">
@@ -1923,10 +1929,14 @@
       <c r="D31" s="5">
         <v>2</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="E31" s="5">
+        <v>33</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2</v>
+      </c>
       <c r="G31" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.75" outlineLevel="1">
@@ -1939,10 +1949,14 @@
       <c r="D32" s="5">
         <v>1</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="E32" s="5">
+        <v>35</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
       <c r="G32" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:17" ht="47.25" outlineLevel="1">
@@ -1955,10 +1969,14 @@
       <c r="D33" s="5">
         <v>1</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="E33" s="5">
+        <v>36</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
       <c r="G33" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:17" ht="47.25">
@@ -1971,10 +1989,14 @@
       <c r="D34" s="5">
         <v>9</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="E34" s="5">
+        <v>38</v>
+      </c>
+      <c r="F34" s="5">
+        <v>9</v>
+      </c>
       <c r="G34" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:17" ht="47.25" outlineLevel="1">
@@ -1987,10 +2009,14 @@
       <c r="D35" s="5">
         <v>3</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="E35" s="5">
+        <v>38</v>
+      </c>
+      <c r="F35" s="5">
+        <v>3</v>
+      </c>
       <c r="G35" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="15.75" outlineLevel="1">
@@ -2003,10 +2029,14 @@
       <c r="D36" s="5">
         <v>1</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="E36" s="5">
+        <v>38</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
       <c r="G36" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:17" ht="15.75" outlineLevel="1">
@@ -2019,10 +2049,14 @@
       <c r="D37" s="5">
         <v>1</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="E37" s="5">
+        <v>39</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
       <c r="G37" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:17" ht="31.5" outlineLevel="1">
@@ -2035,10 +2069,14 @@
       <c r="D38" s="5">
         <v>1</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="E38" s="5">
+        <v>40</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
       <c r="G38" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="31.5" outlineLevel="1">
@@ -2051,10 +2089,14 @@
       <c r="D39" s="5">
         <v>2</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="E39" s="5">
+        <v>41</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2</v>
+      </c>
       <c r="G39" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:17" ht="17.25" outlineLevel="1">
@@ -2067,8 +2109,14 @@
       <c r="D40" s="5">
         <v>2</v>
       </c>
+      <c r="E40" s="1">
+        <v>43</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
       <c r="G40" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:17" ht="51.75" outlineLevel="1">
@@ -2081,8 +2129,14 @@
       <c r="D41" s="5">
         <v>2</v>
       </c>
+      <c r="E41" s="1">
+        <v>45</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
       <c r="G41" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="34.5">
@@ -2132,17 +2186,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:BE4">
     <cfRule type="expression" dxfId="8" priority="8">

--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisky\Documents\Repositories\Griffith\2810ICT-milestone-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC270A7-1D57-4B62-8AAE-BDE25FD8137F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB61950C-02B0-4788-AC86-819A40716A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,6 +673,33 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
@@ -684,33 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1114,8 +1114,8 @@
   </sheetPr>
   <dimension ref="B1:BE48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
@@ -1146,11 +1146,11 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="2:57" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="21" t="s">
         <v>11</v>
       </c>
@@ -1158,37 +1158,37 @@
         <v>1</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="33"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="37"/>
+      <c r="V2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AA2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="33"/>
       <c r="AH2" s="17"/>
       <c r="AI2" s="19" t="s">
         <v>3</v>
@@ -1202,22 +1202,22 @@
       <c r="AP2" s="20"/>
     </row>
     <row r="3" spans="2:57" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1244,12 +1244,12 @@
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="2:57" ht="15.75" customHeight="1">
-      <c r="B4" s="27"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1854,9 +1854,11 @@
       <c r="E27" s="5">
         <v>24</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5">
+        <v>14</v>
+      </c>
       <c r="G27" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="31.5" outlineLevel="1">
@@ -2186,17 +2188,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:BE4">
     <cfRule type="expression" dxfId="8" priority="8">
